--- a/biology/Botanique/Helianthemum_marifolium/Helianthemum_marifolium.xlsx
+++ b/biology/Botanique/Helianthemum_marifolium/Helianthemum_marifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème à feuilles de marum
-Helianthemum marifolium, nom français : « Hélianthème à feuilles de marum »; est une espèce de plante vivace de la famille des Cistacées. C'est une espèce protégée[1].
+Helianthemum marifolium, nom français : « Hélianthème à feuilles de marum »; est une espèce de plante vivace de la famille des Cistacées. C'est une espèce protégée.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes homotypiques
 Cistus marifolius L. in Sp. Pl.: 526 (1753)
@@ -523,13 +537,13 @@
 Helianthemum myrtifolium subsp. marifolium (L.) Rivas Goday &amp; Borja in Anales Inst. Bot. Cavanilles 19: 377 (1961), not validly publ.
 Helianthemum origanifolium var. genuinum Willk. in Icon. Descr. Pl. Nov. 2: 145 (1862), not validly publ.
 Helianthemum origanifolium var. marifolium (L.) Nyman in Syll. Fl. Eur.: 224 (1855), nom. superfl.
-Rhodax dichotomus var. discolor Spach in Hist. Nat. Vég. 6: 44 (1838), nom. illeg [2]
+Rhodax dichotomus var. discolor Spach in Hist. Nat. Vég. 6: 44 (1838), nom. illeg 
 Et aussi :
 Helianthemum origanifolium fo. andalusicum Font Quer &amp; Rothm, 1992.
 Helianthemum marifolium subsp. conquense	Borja &amp; Rivas Goday ex G. López	Anales Jard. Bot. Madrid 50(1): 55	1992
 Helianthemum marifolium subsp. frigidulum	(Cuatrec.) G. López	Anales Jard. Bot. Madrid 50(1): 56	1992
 Helianthemum marifolium subsp. molle	(Cav.) G. López	Anales Jard. Bot. Madrid 50(1): 55	1992
-Helianthemum marifolium subsp. origanifolium[3].
+Helianthemum marifolium subsp. origanifolium.
 Et encore :
 Cistus marifolius L., 1762
 Cistus myrtifolius Lam., 1779
@@ -549,7 +563,7 @@
 Helianthemum oelandicum subsp. marifolium (L.) Bonnier &amp; Layens, 1894
 Helianthemum vineale subsp. marifolium (L.) Nyman, 1878
 Rhodax dichrous (Kuntze) Holub, 1976
-Rhodax marifolius (L.) Fuss, 1866[4]</t>
+Rhodax marifolius (L.) Fuss, 1866</t>
         </is>
       </c>
     </row>
@@ -577,10 +591,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est haute de 10-20 cm, vivace, ligneuse à la base, à rameaux grêles et tomenteux. Les feuilles sont opposées, ovales en cœur à la base, aiguës, vertes en dessus, blanches en dessous. Les fleurs sont jaunes, petites, en grappes terminales, munies de bractéolées. Elles sont pourvues de cinq sépales, ovales-oblongs, poilus-tomenteux . Les pétales dépassent le calice. Les étamines sont sur plusieurs rangs; le style est contourné à la base. Le fruit est une capsule oblongue, un peu poilue
-[5].
+.
 </t>
         </is>
       </c>
@@ -609,9 +625,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bois et lieux arides. Elle est présente en France dans les Bouches-du-Rhône[4], mais aussi en Espagne et au Portugal[5].Cette espèce protégée fait l'objet d'expérimentations de translocation afin de réduire les impacts potentiels du développement de carrières sur les populations d’Helianthemum marifolium et réhabiliter certaines zones sur leurs sites d’exploitation [6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois et lieux arides. Elle est présente en France dans les Bouches-du-Rhône, mais aussi en Espagne et au Portugal.Cette espèce protégée fait l'objet d'expérimentations de translocation afin de réduire les impacts potentiels du développement de carrières sur les populations d’Helianthemum marifolium et réhabiliter certaines zones sur leurs sites d’exploitation 
 </t>
         </is>
       </c>
@@ -640,9 +658,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme différentes espèces du genre Helianthemum cette plante médicinales contient des polyphénols leur donnant des propriétés antioxydantes et antimicrobiennes[7]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme différentes espèces du genre Helianthemum cette plante médicinales contient des polyphénols leur donnant des propriétés antioxydantes et antimicrobiennes
 </t>
         </is>
       </c>
